--- a/Automated Processes/Compensation_File_Creation/ExcelDocuments/070_Police_vadesi.xlsx
+++ b/Automated Processes/Compensation_File_Creation/ExcelDocuments/070_Police_vadesi.xlsx
@@ -166,9 +166,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -217,8 +217,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
